--- a/data_dictionary/source file information for cloud_kitchen_management.xlsx
+++ b/data_dictionary/source file information for cloud_kitchen_management.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a02846c698274034/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manju\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D93EF22-E6EA-4FC7-BA94-6C118067A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D83B0B-D1D5-42F7-99AC-C84CBBDE4126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8F8E77E-F95A-4203-97BB-E6A56D8A5705}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="orders" sheetId="1" r:id="rId1"/>
+    <sheet name="pizzas" sheetId="4" r:id="rId2"/>
+    <sheet name="pizza_types" sheetId="3" r:id="rId3"/>
+    <sheet name="orders_details" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -186,15 +189,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -202,13 +211,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FC9A3-58E9-4237-8E5A-29C41266BD69}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,230 +751,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9CF0DE-D454-4944-9D15-955B14736A14}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491EDAFE-6BB4-4A98-980D-CCCB3C908968}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E464E18-4286-48E6-81A6-BCA9C2FC82DC}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>